--- a/biology/Zoologie/Anguillulina_pratensis/Anguillulina_pratensis.xlsx
+++ b/biology/Zoologie/Anguillulina_pratensis/Anguillulina_pratensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pratylenchus pratensis est une espèce de nématodes de la famille des Pratylenchidae. C'est un nématode phytopathogène, endoparasite des racines des plantes. Cela peut conduire à la formation de tuméfactions qui, après dissection, contiennent des nématodes. Il parasite un grand nombre de plantes différentes, dont par exemple Beta, Hordeum, Lactuca, Lycopersicon esculentum (la Tomate), Solanum tuberosum (la Pomme de terre), etc.[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pratylenchus pratensis est une espèce de nématodes de la famille des Pratylenchidae. C'est un nématode phytopathogène, endoparasite des racines des plantes. Cela peut conduire à la formation de tuméfactions qui, après dissection, contiennent des nématodes. Il parasite un grand nombre de plantes différentes, dont par exemple Beta, Hordeum, Lactuca, Lycopersicon esculentum (la Tomate), Solanum tuberosum (la Pomme de terre), etc..
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Europe[3],[4], en Afrique[4], en Guyane, en Martinique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Europe en Afrique, en Guyane, en Martinique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 mai 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 mai 2021) :
 Pratylenchus pratensis subsp. bicaudatus Meyl, 1954
 Pratylenchus pratensis subsp. pratensis
 Pratylenchus pratensis subsp. tenuistriatus Meyl, 1953</t>
@@ -575,10 +591,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été initialement classée dans le genre Tylenchus sous le protonyme Tylenchus pratensis par le zoologiste néerlandais Johannes Govertus de Man en 1880. Elle est déplacée dans le genre Pratylenchus par le spécialiste russe des nématodes Ivan Filipiev, en 1936, sous le nom Pratylenchus pratensis[1],[4].
-Pratylenchus pratensis a pour synonymes[1],[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce a été initialement classée dans le genre Tylenchus sous le protonyme Tylenchus pratensis par le zoologiste néerlandais Johannes Govertus de Man en 1880. Elle est déplacée dans le genre Pratylenchus par le spécialiste russe des nématodes Ivan Filipiev, en 1936, sous le nom Pratylenchus pratensis,.
+Pratylenchus pratensis a pour synonymes, :
 Anguillulina pratensis (de Man, 1880) Goffart, 1929
 Pratylenchus helophilus Seinhorst, 1959
 Pratylenchus irregularis Loof, 1960
